--- a/Setup/MazeDimensions_ant.xlsx
+++ b/Setup/MazeDimensions_ant.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabea\PycharmProjects\AntsShapes\Setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabea\PycharmProjects\Puzzle_collective_transport\Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27768" windowHeight="12528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27770" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,13 +475,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -521,7 +521,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -541,7 +541,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -581,12 +581,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -604,7 +604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -644,7 +644,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -744,7 +744,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -844,7 +844,7 @@
         <v>5.0750000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -864,7 +864,7 @@
         <v>5.0750000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -884,7 +884,7 @@
         <v>5.0750000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -944,12 +944,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -969,7 +969,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0.10150000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>5.0750000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>

--- a/Setup/MazeDimensions_ant.xlsx
+++ b/Setup/MazeDimensions_ant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>exit_size</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>XL_H arena length used to be 35.2</t>
+  </si>
+  <si>
+    <t>L_LongI</t>
   </si>
 </sst>
 </file>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,6 +767,26 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
